--- a/static/excel_template/snmr_template.xlsx
+++ b/static/excel_template/snmr_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24334"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\----ICT----\ICT REPORTS\2025\10 October - 2025\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\projects\inventorysystem\static\excel_template\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A5874DD-DD01-4CC6-A13E-C70453E2BC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3296FFC2-B99D-4080-BC5F-D1932B5B1034}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" firstSheet="13" activeTab="20" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Server &amp; Network Monitoring" sheetId="4" r:id="rId1"/>
@@ -58,11 +58,16 @@
     <definedName name="sdf">'January 2017'!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xlwcv="http://schemas.microsoft.com/office/spreadsheetml/2024/workbookCompatibilityVersion" uri="{D14903EA-33C4-47F7-8F05-3474C54BE107}">
+      <xlwcv:version setVersion="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="100">
   <si>
     <t>Email Address:</t>
   </si>
@@ -856,18 +861,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -884,6 +877,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -913,9 +921,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -935,9 +940,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -975,9 +980,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1010,9 +1015,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,9 +1067,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1230,36 +1269,36 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="3" customWidth="1"/>
-    <col min="2" max="2" width="27.28515625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="21.42578125" style="3" customWidth="1"/>
-    <col min="4" max="4" width="44.7109375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="8.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="27.33203125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="21.44140625" style="3" customWidth="1"/>
+    <col min="4" max="4" width="44.6640625" style="3" customWidth="1"/>
     <col min="5" max="5" width="40" style="3" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.5703125" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="3"/>
+    <col min="6" max="6" width="17.44140625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="39.5546875" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="19" t="s">
         <v>4</v>
       </c>
@@ -1267,14 +1306,14 @@
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="19" t="s">
         <v>3</v>
       </c>
@@ -1282,14 +1321,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="19" t="s">
         <v>0</v>
       </c>
@@ -1297,40 +1336,40 @@
         <v>36</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="61" t="s">
+      <c r="G8" s="57" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="62"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="58"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <v>1</v>
       </c>
@@ -1345,7 +1384,7 @@
       <c r="F10" s="17"/>
       <c r="G10" s="11"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6"/>
       <c r="B11" s="10"/>
       <c r="C11" s="16"/>
@@ -1354,10 +1393,10 @@
       <c r="F11" s="18"/>
       <c r="G11" s="12"/>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>28</v>
       </c>
@@ -1365,51 +1404,56 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="18" spans="2:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="55" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="18" spans="2:5" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B18" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="55"/>
+      <c r="C18" s="61"/>
       <c r="E18" s="24" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="2:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="56" t="s">
+    <row r="19" spans="2:5" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B19" s="62" t="s">
         <v>37</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="62"/>
       <c r="E19" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="2:5" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
     <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A8:A9"/>
@@ -1417,11 +1461,6 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
@@ -1468,37 +1507,37 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1507,14 +1546,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1523,14 +1562,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1539,44 +1578,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -1585,7 +1624,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>1</v>
       </c>
@@ -1608,7 +1647,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -1631,7 +1670,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -1654,7 +1693,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -1677,7 +1716,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -1686,11 +1725,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -1699,7 +1738,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -1708,7 +1747,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -1717,33 +1756,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -1754,11 +1798,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{A533EB91-0070-42BC-B0A8-DC8DC57CFAF7}"/>
@@ -1795,37 +1834,37 @@
       <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -1834,14 +1873,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -1850,14 +1889,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -1866,44 +1905,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -1912,7 +1951,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -1935,7 +1974,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -1958,7 +1997,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -1981,7 +2020,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -2004,7 +2043,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2013,11 +2052,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -2026,7 +2065,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -2035,7 +2074,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -2044,38 +2083,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -2086,6 +2120,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{519B65F1-6623-4370-8C47-C0700CEFBDFC}"/>
@@ -2122,37 +2161,37 @@
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2161,14 +2200,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2177,14 +2216,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2193,44 +2232,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -2239,7 +2278,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -2262,7 +2301,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -2285,7 +2324,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -2308,7 +2347,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -2331,7 +2370,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2340,11 +2379,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -2353,7 +2392,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -2362,7 +2401,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -2371,33 +2410,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -2408,11 +2452,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{550A22F2-7A33-47F0-B33E-10195936A7C2}"/>
@@ -2449,37 +2488,37 @@
       <selection activeCell="D11" sqref="D11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2488,14 +2527,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2504,14 +2543,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2520,44 +2559,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -2566,7 +2605,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -2589,7 +2628,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -2612,7 +2651,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -2635,7 +2674,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -2658,7 +2697,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2667,11 +2706,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -2680,7 +2719,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -2689,7 +2728,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -2698,33 +2737,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -2735,11 +2779,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{270CB95A-7B7D-433D-9464-987BA971B64A}"/>
@@ -2776,37 +2815,37 @@
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -2815,14 +2854,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -2831,14 +2870,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -2847,44 +2886,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -2893,7 +2932,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -2916,7 +2955,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -2939,7 +2978,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -2962,7 +3001,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -2985,7 +3024,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -2994,11 +3033,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -3007,7 +3046,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -3016,7 +3055,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -3025,38 +3064,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -3067,6 +3101,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{0C68B910-0D5E-4A53-8183-01CD547F000F}"/>
@@ -3103,37 +3142,37 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3142,14 +3181,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -3158,14 +3197,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3174,44 +3213,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -3220,7 +3259,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -3243,7 +3282,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -3266,7 +3305,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -3289,7 +3328,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -3312,7 +3351,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -3321,11 +3360,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -3334,7 +3373,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -3343,7 +3382,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -3352,38 +3391,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -3394,6 +3428,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{1B8104CB-2CF3-4FDE-B27C-11C247933B71}"/>
@@ -3430,37 +3469,37 @@
       <selection activeCell="B11" sqref="B11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3469,14 +3508,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -3485,14 +3524,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3501,44 +3540,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -3547,7 +3586,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -3570,7 +3609,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -3593,7 +3632,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -3616,7 +3655,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -3639,7 +3678,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -3648,11 +3687,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -3661,7 +3700,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -3670,7 +3709,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -3679,33 +3718,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -3716,11 +3760,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{FF79DEDF-BA17-48BE-A6FB-CA0E74FEA93C}"/>
@@ -3757,37 +3796,37 @@
       <selection activeCell="C11" sqref="C11:D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -3796,14 +3835,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -3812,14 +3851,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -3828,44 +3867,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -3874,7 +3913,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -3897,7 +3936,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -3920,7 +3959,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -3943,7 +3982,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -3966,7 +4005,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -3975,11 +4014,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -3988,7 +4027,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -3997,7 +4036,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -4006,38 +4045,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -4048,6 +4082,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{6E2FFEA3-7D31-44CF-AF0A-8178919CB119}"/>
@@ -4084,37 +4123,37 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4123,14 +4162,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -4139,14 +4178,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -4155,44 +4194,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -4201,7 +4240,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -4224,7 +4263,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -4247,7 +4286,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -4270,7 +4309,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -4293,7 +4332,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -4302,11 +4341,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -4315,7 +4354,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -4324,7 +4363,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -4333,33 +4372,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -4370,11 +4414,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{3EA2F981-4FD9-4297-97AE-B5E5524F5410}"/>
@@ -4411,37 +4450,37 @@
       <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4450,14 +4489,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -4466,14 +4505,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -4482,44 +4521,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -4528,7 +4567,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -4551,7 +4590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -4574,7 +4613,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -4597,7 +4636,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -4620,7 +4659,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -4629,11 +4668,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -4642,7 +4681,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -4651,7 +4690,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -4660,38 +4699,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -4702,6 +4736,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{448C0594-7A18-4A3F-98CF-B088DEB90141}"/>
@@ -4735,18 +4774,18 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="29.140625" customWidth="1"/>
-    <col min="2" max="2" width="49.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.42578125" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1"/>
+    <col min="1" max="1" width="29.109375" customWidth="1"/>
+    <col min="2" max="2" width="49.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -4761,7 +4800,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>21</v>
       </c>
@@ -4776,7 +4815,7 @@
       <c r="F2" s="3"/>
       <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>22</v>
       </c>
@@ -4791,7 +4830,7 @@
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="3" t="s">
         <v>11</v>
@@ -4804,7 +4843,7 @@
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
       <c r="B5" s="3" t="s">
         <v>15</v>
@@ -4816,7 +4855,7 @@
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
       <c r="B6" s="3" t="s">
         <v>13</v>
@@ -4828,7 +4867,7 @@
       <c r="E6" s="3"/>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
       <c r="B7" s="3" t="s">
         <v>14</v>
@@ -4837,20 +4876,20 @@
       <c r="E7" s="3"/>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B9" s="3"/>
       <c r="E9" s="3"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B10" s="3"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B11" s="3"/>
     </row>
   </sheetData>
@@ -4873,37 +4912,37 @@
       <selection activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -4912,14 +4951,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -4928,14 +4967,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -4944,44 +4983,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -4990,7 +5029,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -5013,7 +5052,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -5036,7 +5075,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -5059,7 +5098,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -5082,7 +5121,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -5091,11 +5130,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -5104,7 +5143,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -5113,7 +5152,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -5122,33 +5161,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -5159,11 +5203,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{F1B82446-6867-4997-B90C-FA9F223A24CB}"/>
@@ -5194,43 +5233,43 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5239,14 +5278,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -5255,14 +5294,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -5271,167 +5310,135 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="46"/>
-      <c r="B10" s="47"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="47"/>
-    </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="25">
+        <v>1</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="49" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="50"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+    </row>
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" s="49" t="s">
+        <v>62</v>
+      </c>
+      <c r="D11" s="50"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
+      <c r="A12" s="25">
+        <v>3</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="49" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="40" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A12" s="25">
-        <v>2</v>
-      </c>
-      <c r="B12" s="40" t="s">
-        <v>19</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+      <c r="D12" s="50"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="C13" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="D13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G13" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
-      <c r="A14" s="25">
-        <v>4</v>
-      </c>
-      <c r="B14" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C14" s="49" t="s">
         <v>60</v>
       </c>
-      <c r="D14" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="G14" s="40" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="52"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
-    </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+      <c r="D13" s="50"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="52"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B15" s="68"/>
+      <c r="C15" s="44"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44" t="s">
+        <v>29</v>
+      </c>
+      <c r="F15" s="31"/>
+      <c r="G15" s="30"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="45"/>
+      <c r="B16" s="45"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
-      <c r="E16" s="44" t="s">
-        <v>29</v>
-      </c>
+      <c r="E16" s="44"/>
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -5440,60 +5447,51 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="45"/>
-      <c r="B18" s="45"/>
-      <c r="C18" s="44"/>
-      <c r="D18" s="44"/>
-      <c r="E18" s="44"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B18" s="71"/>
+      <c r="C18" s="71"/>
+      <c r="D18" s="43"/>
+      <c r="E18" s="71" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" s="71"/>
+    </row>
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="B19" s="69"/>
+      <c r="C19" s="69"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
-        <v>98</v>
-      </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
-        <v>46</v>
-      </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
-      <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E19" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F19" s="68"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
-    <mergeCell ref="A16:B16"/>
-    <mergeCell ref="A19:C19"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="A15:B15"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="E18:F18"/>
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="B5:C5"/>
     <mergeCell ref="B6:C6"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A19:C19"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{56AE6327-3204-4B14-AADC-C00AED00E820}"/>
+    <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E11:G14 E10:F10" xr:uid="{56AE6327-3204-4B14-AADC-C00AED00E820}"/>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="F6" r:id="rId1" xr:uid="{9159B5D2-B0D6-4BEE-80E5-07C78C41043C}"/>
@@ -5508,7 +5506,7 @@
           <x14:formula1>
             <xm:f>'Do not delete'!$C$2:$C$6</xm:f>
           </x14:formula1>
-          <xm:sqref>B11:B15</xm:sqref>
+          <xm:sqref>B10:B14</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5527,37 +5525,37 @@
       <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5566,14 +5564,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -5582,14 +5580,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -5598,44 +5596,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="45.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="25">
         <v>1</v>
       </c>
@@ -5658,7 +5656,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>2</v>
       </c>
@@ -5681,39 +5679,39 @@
         <v>54</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="65">
+    <row r="12" spans="1:7" ht="27.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="66">
         <v>3</v>
       </c>
-      <c r="B12" s="74" t="s">
+      <c r="B12" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="C12" s="66" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="71" t="s">
+      <c r="D12" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="71" t="s">
+      <c r="E12" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F12" s="72">
+      <c r="F12" s="73">
         <v>42762</v>
       </c>
-      <c r="G12" s="73" t="s">
+      <c r="G12" s="74" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="65"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="71"/>
-      <c r="E13" s="71"/>
-      <c r="F13" s="72"/>
-      <c r="G13" s="73"/>
-    </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="66"/>
+      <c r="B13" s="65"/>
+      <c r="C13" s="66"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="74"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="34"/>
       <c r="B14" s="35"/>
       <c r="C14" s="36"/>
@@ -5722,7 +5720,7 @@
       <c r="F14" s="37"/>
       <c r="G14" s="38"/>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="34"/>
       <c r="B15" s="35"/>
       <c r="C15" s="36"/>
@@ -5731,7 +5729,7 @@
       <c r="F15" s="37"/>
       <c r="G15" s="38"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="34"/>
       <c r="C16" s="36"/>
       <c r="D16" s="35"/>
@@ -5739,11 +5737,11 @@
       <c r="F16" s="37"/>
       <c r="G16" s="38"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="67" t="s">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="67"/>
+      <c r="B17" s="68"/>
       <c r="C17" s="44"/>
       <c r="D17" s="44"/>
       <c r="E17" s="44" t="s">
@@ -5752,7 +5750,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -5761,7 +5759,7 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="45"/>
       <c r="B19" s="45"/>
       <c r="C19" s="44"/>
@@ -5770,87 +5768,87 @@
       <c r="F19" s="31"/>
       <c r="G19" s="30"/>
     </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="70" t="s">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
+      <c r="B20" s="71"/>
+      <c r="C20" s="71"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="70" t="s">
+      <c r="E20" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="F20" s="70"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="68" t="s">
+      <c r="F20" s="71"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B21" s="68"/>
-      <c r="C21" s="68"/>
+      <c r="B21" s="69"/>
+      <c r="C21" s="69"/>
       <c r="D21" s="43"/>
-      <c r="E21" s="67" t="s">
+      <c r="E21" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="F21" s="67"/>
-    </row>
-    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="69"/>
-      <c r="C24" s="69"/>
+      <c r="F21" s="68"/>
+    </row>
+    <row r="22" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="24" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B24" s="70"/>
+      <c r="C24" s="70"/>
       <c r="D24" s="28"/>
-      <c r="F24" s="69"/>
-      <c r="G24" s="69"/>
-    </row>
-    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="66"/>
-      <c r="C25" s="66"/>
-      <c r="F25" s="66"/>
-      <c r="G25" s="66"/>
-    </row>
-    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
-    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F24" s="70"/>
+      <c r="G24" s="70"/>
+    </row>
+    <row r="25" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B25" s="67"/>
+      <c r="C25" s="67"/>
+      <c r="F25" s="67"/>
+      <c r="G25" s="67"/>
+    </row>
+    <row r="26" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="28" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="33" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="34" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="35" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="36" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="37" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="38" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="39" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="40" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="41" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="42" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="43" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="44" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="45" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="46" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="47" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="48" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="49" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="50" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="51" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="52" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="53" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="54" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="55" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="56" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="57" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="58" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="59" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="60" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="61" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="62" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="63" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="64" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="78" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A78" s="29"/>
       <c r="B78" s="26"/>
       <c r="C78" s="26"/>
@@ -5859,7 +5857,7 @@
       <c r="F78" s="27"/>
       <c r="G78" s="26"/>
     </row>
-    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A79" s="29"/>
       <c r="B79" s="26"/>
       <c r="C79" s="26"/>
@@ -5868,7 +5866,7 @@
       <c r="F79" s="27"/>
       <c r="G79" s="26"/>
     </row>
-    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A80" s="29"/>
       <c r="B80" s="26"/>
       <c r="C80" s="26"/>
@@ -5879,11 +5877,11 @@
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="F25:G25"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A17:B17"/>
@@ -5900,11 +5898,11 @@
     <mergeCell ref="E12:E13"/>
     <mergeCell ref="F12:F13"/>
     <mergeCell ref="G12:G13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="C12:C13"/>
   </mergeCells>
   <dataValidations count="3">
     <dataValidation allowBlank="1" showErrorMessage="1" sqref="F10:F11" xr:uid="{00000000-0002-0000-0200-000000000000}"/>
@@ -5949,37 +5947,37 @@
       <selection activeCell="E19" sqref="E19:F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -5988,14 +5986,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6004,14 +6002,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -6020,44 +6018,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -6066,7 +6064,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -6089,7 +6087,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -6112,7 +6110,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -6135,7 +6133,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -6158,7 +6156,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -6167,11 +6165,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -6180,7 +6178,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -6189,7 +6187,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -6198,39 +6196,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="C8:C9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A20:C20"/>
@@ -6240,6 +6232,12 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
     <mergeCell ref="F8:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="C8:C9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{00000000-0002-0000-0300-000000000000}"/>
@@ -6276,37 +6274,37 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6315,14 +6313,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6331,14 +6329,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -6347,44 +6345,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -6393,7 +6391,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -6416,7 +6414,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -6439,7 +6437,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -6462,7 +6460,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -6485,7 +6483,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -6494,11 +6492,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -6507,7 +6505,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -6516,7 +6514,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -6525,33 +6523,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -6562,11 +6565,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{436D2EB9-8218-45E1-8F0E-879760554D1F}"/>
@@ -6603,37 +6601,37 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6642,14 +6640,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6658,14 +6656,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -6674,44 +6672,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -6720,7 +6718,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -6743,7 +6741,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -6766,7 +6764,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -6789,7 +6787,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -6812,7 +6810,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -6821,11 +6819,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -6834,7 +6832,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -6843,7 +6841,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -6852,38 +6850,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -6894,6 +6887,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{550CF3FC-46CF-4666-8551-A6C573CA4671}"/>
@@ -6936,37 +6934,37 @@
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -6975,14 +6973,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -6991,14 +6989,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7007,44 +7005,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -7053,7 +7051,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -7076,7 +7074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -7099,7 +7097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -7122,7 +7120,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -7145,7 +7143,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7154,11 +7152,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -7167,7 +7165,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -7176,7 +7174,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -7185,38 +7183,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -7227,6 +7220,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{CEACF0D8-10D0-422A-BFE8-1B55A541FFF4}"/>
@@ -7269,37 +7267,37 @@
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7308,14 +7306,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -7324,14 +7322,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7340,44 +7338,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -7386,7 +7384,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -7409,7 +7407,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -7432,7 +7430,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -7455,7 +7453,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -7478,7 +7476,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7487,11 +7485,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -7500,7 +7498,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -7509,7 +7507,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -7518,33 +7516,38 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -7555,11 +7558,6 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{F8F50F0D-C68D-4B0B-B33B-747A8B350B7D}"/>
@@ -7596,37 +7594,37 @@
       <selection activeCell="A11" sqref="A11:G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.5703125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="7.5546875" style="3" customWidth="1"/>
     <col min="2" max="2" width="18" style="3" customWidth="1"/>
-    <col min="3" max="3" width="24.140625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="24.42578125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="25.28515625" style="3" customWidth="1"/>
-    <col min="8" max="8" width="10.85546875" style="3" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="3"/>
+    <col min="3" max="3" width="24.109375" style="3" customWidth="1"/>
+    <col min="4" max="4" width="20.88671875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="24.44140625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" style="3" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="3" customWidth="1"/>
+    <col min="8" max="8" width="10.88671875" style="3" customWidth="1"/>
+    <col min="9" max="16384" width="9.109375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="17.399999999999999" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="57"/>
+      <c r="C4" s="63"/>
       <c r="E4" s="7" t="s">
         <v>4</v>
       </c>
@@ -7635,14 +7633,14 @@
       </c>
       <c r="G4" s="8"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="58" t="s">
+      <c r="B5" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="58"/>
+      <c r="C5" s="64"/>
       <c r="E5" s="7" t="s">
         <v>3</v>
       </c>
@@ -7651,14 +7649,14 @@
       </c>
       <c r="G5" s="32"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B6" s="58" t="s">
+      <c r="B6" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="C6" s="58"/>
+      <c r="C6" s="64"/>
       <c r="E6" s="7" t="s">
         <v>0</v>
       </c>
@@ -7667,44 +7665,44 @@
       </c>
       <c r="G6" s="22"/>
     </row>
-    <row r="7" spans="1:7" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="F7" s="3" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="59" t="s">
+      <c r="B8" s="55" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="59" t="s">
+      <c r="C8" s="55" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="59" t="s">
+      <c r="D8" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E8" s="59" t="s">
+      <c r="E8" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="F8" s="59" t="s">
+      <c r="F8" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="59" t="s">
+      <c r="G8" s="55" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="64"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="60"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="60"/>
-      <c r="F9" s="60"/>
-      <c r="G9" s="60"/>
-    </row>
-    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="60"/>
+      <c r="B9" s="56"/>
+      <c r="C9" s="56"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="56"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="13.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="46"/>
       <c r="B10" s="47"/>
       <c r="C10" s="48"/>
@@ -7713,7 +7711,7 @@
       <c r="F10" s="47"/>
       <c r="G10" s="47"/>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" ht="97.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="25">
         <v>1</v>
       </c>
@@ -7736,7 +7734,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A12" s="25">
         <v>2</v>
       </c>
@@ -7759,7 +7757,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A13" s="25">
         <v>3</v>
       </c>
@@ -7782,7 +7780,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="4" customFormat="1" ht="15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="14.4" x14ac:dyDescent="0.25">
       <c r="A14" s="25">
         <v>4</v>
       </c>
@@ -7805,7 +7803,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="51"/>
       <c r="B15" s="51"/>
       <c r="C15" s="51"/>
@@ -7814,11 +7812,11 @@
       <c r="F15" s="51"/>
       <c r="G15" s="51"/>
     </row>
-    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="67" t="s">
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="67"/>
+      <c r="B16" s="68"/>
       <c r="C16" s="44"/>
       <c r="D16" s="44"/>
       <c r="E16" s="44" t="s">
@@ -7827,7 +7825,7 @@
       <c r="F16" s="31"/>
       <c r="G16" s="30"/>
     </row>
-    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="45"/>
       <c r="B17" s="45"/>
       <c r="C17" s="44"/>
@@ -7836,7 +7834,7 @@
       <c r="F17" s="31"/>
       <c r="G17" s="30"/>
     </row>
-    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="45"/>
       <c r="B18" s="45"/>
       <c r="C18" s="44"/>
@@ -7845,38 +7843,33 @@
       <c r="F18" s="31"/>
       <c r="G18" s="30"/>
     </row>
-    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="70" t="s">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="71" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
+      <c r="B19" s="71"/>
+      <c r="C19" s="71"/>
       <c r="D19" s="43"/>
-      <c r="E19" s="70" t="s">
+      <c r="E19" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="F19" s="70"/>
-    </row>
-    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="68" t="s">
+      <c r="F19" s="71"/>
+    </row>
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="69" t="s">
         <v>46</v>
       </c>
-      <c r="B20" s="68"/>
-      <c r="C20" s="68"/>
+      <c r="B20" s="69"/>
+      <c r="C20" s="69"/>
       <c r="D20" s="43"/>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="F20" s="67"/>
-    </row>
-    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.2"/>
+      <c r="F20" s="68"/>
+    </row>
+    <row r="21" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A20:C20"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="A16:B16"/>
     <mergeCell ref="A19:C19"/>
@@ -7887,6 +7880,11 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="C8:C9"/>
+    <mergeCell ref="A20:C20"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
   </mergeCells>
   <dataValidations count="1">
     <dataValidation allowBlank="1" prompt="Click here to select from the list..." sqref="E12:G15 E11:F11" xr:uid="{566CF5B7-E216-468C-BBF5-5DF727F8ABF4}"/>
